--- a/考勤配置文件.xlsx
+++ b/考勤配置文件.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="上下班时间" sheetId="1" r:id="rId1"/>
-    <sheet name="节假日设定" sheetId="2" r:id="rId2"/>
-    <sheet name="特殊周末" sheetId="3" r:id="rId3"/>
-    <sheet name="其他配置" sheetId="4" r:id="rId4"/>
+    <sheet name="说明" sheetId="5" r:id="rId1"/>
+    <sheet name="上下班时间" sheetId="1" r:id="rId2"/>
+    <sheet name="节假日设定" sheetId="2" r:id="rId3"/>
+    <sheet name="特殊周末" sheetId="3" r:id="rId4"/>
+    <sheet name="其他配置" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>上班时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,6 +85,22 @@
   </si>
   <si>
     <t>劳动节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：上班时间默认9:00 下班时间默认18:00 迟到时间默认9:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、把考勤文件：【11层考勤.xls】和【23层考勤.xls】放在程序同级目录下
+2、修改配置文件【考勤配置文件.xlsx】中其他配置选项卡中：年份，月份，免打卡人员（|隔开）
+3、（可选）上线班时间选项卡，时间设定
+4、（可选）节假日设定
+5、运行main程序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考勤处理程序使用指导</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -91,7 +108,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,13 +132,40 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -151,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -162,6 +206,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -468,58 +524,136 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="88" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="126" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2">
         <v>0.375</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="2">
         <v>0.39583333333333331</v>
       </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A6:G7"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -568,7 +702,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -589,12 +723,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
